--- a/public/admin/exchange-rate-sample.xlsx
+++ b/public/admin/exchange-rate-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Softieons - Develope\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\geopay\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{076B9539-CF1C-4A22-BBBC-3F76364AD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE2586-717F-4B47-8EEC-1D7CA0DEE972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F3B0C6C-2AF0-4254-B550-9B77E7307439}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,31 +34,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>currency</t>
   </si>
   <si>
-    <t>exchange_rate</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>GBP</t>
+    <t>markdown_charge</t>
+  </si>
+  <si>
+    <t>aggregator_rate</t>
+  </si>
+  <si>
+    <t>markdown_type (flat/percentage)</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>LKR</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,11 +85,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,17 +106,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B9043872-97D1-4AB5-8138-1E8EA587C92A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,55 +428,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E23D7-8A67-4A22-9E1C-CAA5D4D10371}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1.260046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>23673.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.93305800000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>58.638800000000003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.80694200000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>135.07</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.71915399999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>197.25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15526.6844</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>117.19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/exchange-rate-sample.xlsx
+++ b/public/admin/exchange-rate-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\geopay\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE2586-717F-4B47-8EEC-1D7CA0DEE972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73891901-72D1-43BD-8A78-CA97F52F2FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F3B0C6C-2AF0-4254-B550-9B77E7307439}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>currency</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
 </sst>
 </file>
@@ -428,115 +449,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E23D7-8A67-4A22-9E1C-CAA5D4D10371}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>23673.5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>58.638800000000003</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>135.07</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>3.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>197.25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>3.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>15526.6844</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>3.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>117.19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>3.25</v>
       </c>
     </row>

--- a/public/admin/exchange-rate-sample.xlsx
+++ b/public/admin/exchange-rate-sample.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\geopay\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73891901-72D1-43BD-8A78-CA97F52F2FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE4F0F-6E91-418B-9412-71A921B22B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F3B0C6C-2AF0-4254-B550-9B77E7307439}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>currency</t>
   </si>
@@ -91,6 +82,12 @@
   </si>
   <si>
     <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>api_markdown_type (flat/percentage)</t>
+  </si>
+  <si>
+    <t>api_markdown_charge</t>
   </si>
 </sst>
 </file>
@@ -449,9 +446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E23D7-8A67-4A22-9E1C-CAA5D4D10371}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -460,9 +459,11 @@
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -478,8 +479,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -495,8 +502,14 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -512,8 +525,14 @@
       <c r="E3" s="1">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -529,8 +548,14 @@
       <c r="E4" s="1">
         <v>3.25</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -546,8 +571,14 @@
       <c r="E5" s="1">
         <v>3.25</v>
       </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -563,8 +594,14 @@
       <c r="E6" s="1">
         <v>3.25</v>
       </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -579,6 +616,12 @@
       </c>
       <c r="E7" s="1">
         <v>3.25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/exchange-rate-sample.xlsx
+++ b/public/admin/exchange-rate-sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\geopay\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE4F0F-6E91-418B-9412-71A921B22B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29D227-3E08-4BF3-97EC-830BC7592A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F3B0C6C-2AF0-4254-B550-9B77E7307439}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>currency</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>api_markdown_type (flat/percentage)</t>
-  </si>
-  <si>
-    <t>api_markdown_charge</t>
   </si>
 </sst>
 </file>
@@ -446,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E23D7-8A67-4A22-9E1C-CAA5D4D10371}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:G7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -463,7 +457,7 @@
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -479,14 +473,8 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -502,14 +490,8 @@
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -525,14 +507,8 @@
       <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -548,14 +524,8 @@
       <c r="E4" s="1">
         <v>3.25</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -571,14 +541,8 @@
       <c r="E5" s="1">
         <v>3.25</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -594,14 +558,8 @@
       <c r="E6" s="1">
         <v>3.25</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -616,12 +574,6 @@
       </c>
       <c r="E7" s="1">
         <v>3.25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.25</v>
       </c>
     </row>
   </sheetData>
